--- a/Data/EC/NIT-8904811634.xlsx
+++ b/Data/EC/NIT-8904811634.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51F191E-BD4D-4D4A-86C4-8BA80C908B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C1FEED-F868-4A1D-A291-259926725F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B27C5C25-6A91-469E-99C4-F725550F49FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE704D4F-6890-435A-AED1-7813963B5962}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="108">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143389983</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA CAMACHO RUIZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1126250399</t>
+  </si>
+  <si>
+    <t>MELQUIADES RAFAEL REALES GUERRERO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>11433349155</t>
+  </si>
+  <si>
+    <t>YINA MARQUEZA MARTINEZ SOTO</t>
+  </si>
+  <si>
     <t>1047401275</t>
   </si>
   <si>
@@ -74,6 +116,51 @@
     <t>1703</t>
   </si>
   <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1143326919</t>
+  </si>
+  <si>
+    <t>DILSIA ROMERO BLANCO</t>
+  </si>
+  <si>
+    <t>1069502640</t>
+  </si>
+  <si>
+    <t>YINA MARCELA MADRID ARROYO</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>45515083</t>
   </si>
   <si>
@@ -83,16 +170,91 @@
     <t>1803</t>
   </si>
   <si>
-    <t>1049537868</t>
-  </si>
-  <si>
-    <t>EDUARDO ENRIQUE HERRERA RODELO</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1143372255</t>
+  </si>
+  <si>
+    <t>GISEL MADIEDO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>104902923</t>
+  </si>
+  <si>
+    <t>CARMEN IVETH VELILLA GUERRERO</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1049024893</t>
+  </si>
+  <si>
+    <t>YULITZA LORENA RODRIGUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2002</t>
   </si>
   <si>
     <t>1128058936</t>
@@ -104,267 +266,12 @@
     <t>2004</t>
   </si>
   <si>
-    <t>73559526</t>
-  </si>
-  <si>
-    <t>ODAIR JOSE ORTEGA DURANGO</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
     <t>1143347789</t>
   </si>
   <si>
     <t>BRAINER MEJIA MIRANDA</t>
   </si>
   <si>
-    <t>45558239</t>
-  </si>
-  <si>
-    <t>ANYELA DEL CARMEN MEDINA CASTELLAR</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1047464219</t>
-  </si>
-  <si>
-    <t>CARMEN SANDRITH BUELVAS CARDENAS</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1143389983</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA CAMACHO RUIZ</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1126250399</t>
-  </si>
-  <si>
-    <t>MELQUIADES RAFAEL REALES GUERRERO</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1143337340</t>
-  </si>
-  <si>
-    <t>YESENIA OLMOS VARGAS</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>11433349155</t>
-  </si>
-  <si>
-    <t>YINA MARQUEZA MARTINEZ SOTO</t>
-  </si>
-  <si>
-    <t>1048556275</t>
-  </si>
-  <si>
-    <t>YOLEIDIS ARRIETA GARCIA</t>
-  </si>
-  <si>
-    <t>1050921557</t>
-  </si>
-  <si>
-    <t>LEYDA JULIETH TORRES DIAZ</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>1143326919</t>
-  </si>
-  <si>
-    <t>DILSIA ROMERO BLANCO</t>
-  </si>
-  <si>
-    <t>1069502640</t>
-  </si>
-  <si>
-    <t>YINA MARCELA MADRID ARROYO</t>
-  </si>
-  <si>
-    <t>1023015381</t>
-  </si>
-  <si>
-    <t>JULIETH NATHALIA MATEUS OSORIO</t>
-  </si>
-  <si>
-    <t>1143372255</t>
-  </si>
-  <si>
-    <t>GISEL MADIEDO GONZALEZ</t>
-  </si>
-  <si>
-    <t>104902923</t>
-  </si>
-  <si>
-    <t>CARMEN IVETH VELILLA GUERRERO</t>
-  </si>
-  <si>
-    <t>1049024893</t>
-  </si>
-  <si>
-    <t>YULITZA LORENA RODRIGUEZ HERNANDEZ</t>
-  </si>
-  <si>
     <t>20261723</t>
   </si>
   <si>
@@ -377,46 +284,40 @@
     <t>KARINA SANDOVAL BADILLO</t>
   </si>
   <si>
+    <t>20262032</t>
+  </si>
+  <si>
+    <t>YISETH VARGAS SANABRIA</t>
+  </si>
+  <si>
+    <t>320006873</t>
+  </si>
+  <si>
+    <t>SARA NARANJO ULLOA</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>20262032</t>
-  </si>
-  <si>
-    <t>YISETH VARGAS SANABRIA</t>
-  </si>
-  <si>
-    <t>320006873</t>
-  </si>
-  <si>
-    <t>SARA NARANJO ULLOA</t>
-  </si>
-  <si>
-    <t>23151969</t>
-  </si>
-  <si>
-    <t>MONICA CELEDON ATENCIO</t>
   </si>
   <si>
     <t>1143408516</t>
@@ -524,7 +425,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -537,9 +440,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -739,23 +640,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,10 +684,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +740,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB3E26E-6928-5E27-B7FC-2761B3A098E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15829138-FE87-84C8-F500-C310E4087CDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,8 +1091,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC11D640-3200-4D8B-B409-E56A0CD97407}">
-  <dimension ref="B2:J169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F6C61C-BE5D-440E-8D34-759A2BE2F877}">
+  <dimension ref="B2:J147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1215,7 +1116,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1260,7 +1161,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1292,12 +1193,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>9389150</v>
+        <v>8687581</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1308,17 +1209,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C13" s="5">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F13" s="5">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1345,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1368,10 +1269,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>34800</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>975028</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1388,13 +1289,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>43916</v>
+        <v>121200</v>
       </c>
       <c r="G17" s="18">
-        <v>1097902</v>
+        <v>3030000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1405,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>49880</v>
+        <v>34800</v>
       </c>
       <c r="G18" s="18">
-        <v>1247000</v>
+        <v>975028</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1428,19 +1329,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>49880</v>
+        <v>121200</v>
       </c>
       <c r="G19" s="18">
-        <v>1247000</v>
+        <v>3030000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1451,19 +1352,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>34800</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>975028</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1474,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>121200</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>3030000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1497,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>34800</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>975028</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1520,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>121200</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>3030000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1543,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>35112</v>
+        <v>34800</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>975028</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1566,19 +1467,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>35112</v>
+        <v>121200</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>3030000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1589,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>34800</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>975028</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1612,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>50720</v>
+        <v>121200</v>
       </c>
       <c r="G27" s="18">
-        <v>1268000</v>
+        <v>3030000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1635,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>37236</v>
       </c>
       <c r="G28" s="18">
-        <v>930900</v>
+        <v>975028</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1658,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>12014</v>
+        <v>121200</v>
       </c>
       <c r="G29" s="18">
-        <v>1025000</v>
+        <v>3030000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1681,16 +1582,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>35387</v>
+        <v>37236</v>
       </c>
       <c r="G30" s="18">
         <v>975028</v>
@@ -1704,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>35387</v>
+        <v>121200</v>
       </c>
       <c r="G31" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1727,19 +1628,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>35387</v>
+        <v>53928</v>
       </c>
       <c r="G32" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1750,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>35387</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>975028</v>
+        <v>737717</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1773,16 +1674,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>35387</v>
+        <v>37236</v>
       </c>
       <c r="G34" s="18">
         <v>975028</v>
@@ -1796,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
-        <v>35387</v>
+        <v>121200</v>
       </c>
       <c r="G35" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1819,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>35387</v>
+        <v>53928</v>
       </c>
       <c r="G36" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1842,16 +1743,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>35387</v>
+        <v>37236</v>
       </c>
       <c r="G37" s="18">
         <v>975028</v>
@@ -1865,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>35387</v>
+        <v>121200</v>
       </c>
       <c r="G38" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1888,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>35387</v>
+        <v>53928</v>
       </c>
       <c r="G39" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1911,16 +1812,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
-        <v>35387</v>
+        <v>37236</v>
       </c>
       <c r="G40" s="18">
         <v>975028</v>
@@ -1934,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>35387</v>
+        <v>121200</v>
       </c>
       <c r="G41" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1957,19 +1858,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>37236</v>
+        <v>53928</v>
       </c>
       <c r="G42" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1980,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>37236</v>
@@ -2003,19 +1904,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>37236</v>
+        <v>121200</v>
       </c>
       <c r="G44" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2026,19 +1927,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>37236</v>
+        <v>53928</v>
       </c>
       <c r="G45" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2049,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>37236</v>
@@ -2072,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>37236</v>
+        <v>121200</v>
       </c>
       <c r="G47" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2095,19 +1996,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>37236</v>
+        <v>53928</v>
       </c>
       <c r="G48" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2118,13 +2019,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
         <v>37236</v>
@@ -2141,19 +2042,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>37236</v>
+        <v>121200</v>
       </c>
       <c r="G50" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2164,19 +2065,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>37236</v>
+        <v>53928</v>
       </c>
       <c r="G51" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2187,13 +2088,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>37236</v>
@@ -2210,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>37236</v>
+        <v>121200</v>
       </c>
       <c r="G53" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2233,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
-        <v>37236</v>
+        <v>53928</v>
       </c>
       <c r="G54" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2256,16 +2157,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>34800</v>
+        <v>37236</v>
       </c>
       <c r="G55" s="18">
         <v>975028</v>
@@ -2279,19 +2180,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F56" s="18">
-        <v>34800</v>
+        <v>121200</v>
       </c>
       <c r="G56" s="18">
-        <v>975028</v>
+        <v>3030000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2302,19 +2203,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
-        <v>34800</v>
+        <v>53928</v>
       </c>
       <c r="G57" s="18">
-        <v>975028</v>
+        <v>1348200</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2325,19 +2226,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F58" s="18">
-        <v>34800</v>
+        <v>34668</v>
       </c>
       <c r="G58" s="18">
-        <v>975028</v>
+        <v>995068</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2348,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E59" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
-        <v>34800</v>
+        <v>8853</v>
       </c>
       <c r="G59" s="18">
-        <v>975028</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2371,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F60" s="18">
-        <v>34800</v>
+        <v>37236</v>
       </c>
       <c r="G60" s="18">
         <v>975028</v>
@@ -2394,13 +2295,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F61" s="18">
         <v>121200</v>
@@ -2417,19 +2318,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G62" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2440,19 +2341,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
-        <v>121200</v>
+        <v>38520</v>
       </c>
       <c r="G63" s="18">
-        <v>3030000</v>
+        <v>995068</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2463,19 +2364,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
-        <v>121200</v>
+        <v>37236</v>
       </c>
       <c r="G64" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2486,13 +2387,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
         <v>121200</v>
@@ -2509,19 +2410,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G66" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2532,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>121200</v>
+        <v>38520</v>
       </c>
       <c r="G67" s="18">
-        <v>3030000</v>
+        <v>995068</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2555,19 +2456,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
-        <v>121200</v>
+        <v>37236</v>
       </c>
       <c r="G68" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2578,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>121200</v>
@@ -2601,19 +2502,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F70" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G70" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2624,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F71" s="18">
-        <v>121200</v>
+        <v>38520</v>
       </c>
       <c r="G71" s="18">
-        <v>3030000</v>
+        <v>995068</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2647,19 +2548,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F72" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G72" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2670,13 +2571,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F73" s="18">
         <v>121200</v>
@@ -2693,19 +2594,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F74" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G74" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2716,19 +2617,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F75" s="18">
-        <v>121200</v>
+        <v>43916</v>
       </c>
       <c r="G75" s="18">
-        <v>3030000</v>
+        <v>1097902</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2739,19 +2640,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G76" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2762,13 +2663,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>121200</v>
@@ -2785,19 +2686,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F78" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G78" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2808,19 +2709,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G79" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2831,10 +2732,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>44</v>
@@ -2854,19 +2755,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G81" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2877,19 +2778,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G82" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2900,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F83" s="18">
         <v>121200</v>
@@ -2923,19 +2824,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F84" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G84" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2946,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F85" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G85" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2969,13 +2870,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F86" s="18">
         <v>121200</v>
@@ -2992,19 +2893,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F87" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G87" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3015,19 +2916,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F88" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G88" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3038,13 +2939,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F89" s="18">
         <v>121200</v>
@@ -3061,19 +2962,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F90" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G90" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3084,19 +2985,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F91" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G91" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3107,13 +3008,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F92" s="18">
         <v>121200</v>
@@ -3130,19 +3031,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F93" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G93" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3153,19 +3054,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F94" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G94" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3176,13 +3077,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F95" s="18">
         <v>121200</v>
@@ -3199,19 +3100,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F96" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G96" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3222,19 +3123,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F97" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G97" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3245,13 +3146,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F98" s="18">
         <v>121200</v>
@@ -3268,19 +3169,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F99" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G99" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3291,19 +3192,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F100" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G100" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3314,13 +3215,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F101" s="18">
         <v>121200</v>
@@ -3337,19 +3238,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F102" s="18">
-        <v>121200</v>
+        <v>53928</v>
       </c>
       <c r="G102" s="18">
-        <v>3030000</v>
+        <v>1348200</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3360,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F103" s="18">
-        <v>121200</v>
+        <v>35387</v>
       </c>
       <c r="G103" s="18">
-        <v>3030000</v>
+        <v>975028</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3383,13 +3284,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F104" s="18">
         <v>121200</v>
@@ -3406,19 +3307,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F105" s="18">
-        <v>2270</v>
+        <v>53928</v>
       </c>
       <c r="G105" s="18">
-        <v>1702400</v>
+        <v>1348200</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3429,19 +3330,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F106" s="18">
-        <v>53928</v>
+        <v>35387</v>
       </c>
       <c r="G106" s="18">
-        <v>1348200</v>
+        <v>975028</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3452,19 +3353,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F107" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G107" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3475,19 +3376,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F108" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G108" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3498,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F109" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G109" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3521,19 +3422,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F110" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G110" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3544,19 +3445,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F111" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G111" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3567,19 +3468,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F112" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G112" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3590,19 +3491,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F113" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G113" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3613,19 +3514,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F114" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G114" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3636,19 +3537,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F115" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G115" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3659,19 +3560,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F116" s="18">
-        <v>53928</v>
+        <v>24292</v>
       </c>
       <c r="G116" s="18">
-        <v>1348200</v>
+        <v>828116</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3682,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F117" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G117" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3705,19 +3606,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F118" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G118" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3728,19 +3629,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F119" s="18">
-        <v>53928</v>
+        <v>45274</v>
       </c>
       <c r="G119" s="18">
-        <v>1348200</v>
+        <v>1131848</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3751,19 +3652,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F120" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G120" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3774,19 +3675,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F121" s="18">
-        <v>53928</v>
+        <v>45274</v>
       </c>
       <c r="G121" s="18">
-        <v>1348200</v>
+        <v>1131848</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3797,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F122" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G122" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3820,19 +3721,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F123" s="18">
-        <v>53928</v>
+        <v>12874</v>
       </c>
       <c r="G123" s="18">
-        <v>1348200</v>
+        <v>877803</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3843,19 +3744,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F124" s="18">
-        <v>53928</v>
+        <v>121200</v>
       </c>
       <c r="G124" s="18">
-        <v>1348200</v>
+        <v>3030000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3866,19 +3767,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F125" s="18">
-        <v>53928</v>
+        <v>35112</v>
       </c>
       <c r="G125" s="18">
-        <v>1348200</v>
+        <v>877803</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3889,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F126" s="18">
-        <v>53928</v>
+        <v>35112</v>
       </c>
       <c r="G126" s="18">
-        <v>1348200</v>
+        <v>877803</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3912,19 +3813,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F127" s="18">
-        <v>53928</v>
+        <v>50720</v>
       </c>
       <c r="G127" s="18">
-        <v>1348200</v>
+        <v>1268000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3935,19 +3836,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F128" s="18">
-        <v>53928</v>
+        <v>46718</v>
       </c>
       <c r="G128" s="18">
-        <v>1348200</v>
+        <v>1167958</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3958,19 +3859,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F129" s="18">
-        <v>41677</v>
+        <v>39001</v>
       </c>
       <c r="G129" s="18">
-        <v>1041942</v>
+        <v>975028</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3981,19 +3882,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F130" s="18">
-        <v>33125</v>
+        <v>39001</v>
       </c>
       <c r="G130" s="18">
-        <v>877803</v>
+        <v>975028</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4004,19 +3905,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F131" s="18">
-        <v>33125</v>
+        <v>37783</v>
       </c>
       <c r="G131" s="18">
-        <v>877803</v>
+        <v>944577</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4027,19 +3928,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F132" s="18">
-        <v>33125</v>
+        <v>39001</v>
       </c>
       <c r="G132" s="18">
-        <v>877803</v>
+        <v>975028</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4050,19 +3951,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F133" s="18">
-        <v>33125</v>
+        <v>37783</v>
       </c>
       <c r="G133" s="18">
-        <v>877803</v>
+        <v>944577</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4073,19 +3974,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F134" s="18">
-        <v>33125</v>
+        <v>39001</v>
       </c>
       <c r="G134" s="18">
-        <v>877803</v>
+        <v>975028</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4096,19 +3997,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D135" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="F135" s="18">
-        <v>33125</v>
+        <v>39001</v>
       </c>
       <c r="G135" s="18">
-        <v>877803</v>
+        <v>975028</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4119,19 +4020,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D136" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E136" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="F136" s="18">
-        <v>33125</v>
+        <v>39001</v>
       </c>
       <c r="G136" s="18">
-        <v>877803</v>
+        <v>975028</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4142,19 +4043,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F137" s="18">
-        <v>33125</v>
+        <v>39001</v>
       </c>
       <c r="G137" s="18">
-        <v>877803</v>
+        <v>975028</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4165,19 +4066,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F138" s="18">
-        <v>38520</v>
+        <v>39001</v>
       </c>
       <c r="G138" s="18">
-        <v>995068</v>
+        <v>975028</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4188,19 +4089,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F139" s="18">
-        <v>38520</v>
+        <v>39001</v>
       </c>
       <c r="G139" s="18">
-        <v>995068</v>
+        <v>975028</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4211,581 +4112,75 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F140" s="18">
-        <v>38520</v>
+        <v>39001</v>
       </c>
       <c r="G140" s="18">
-        <v>995068</v>
+        <v>975028</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F141" s="18">
-        <v>34668</v>
-      </c>
-      <c r="G141" s="18">
-        <v>995068</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F142" s="18">
-        <v>8853</v>
-      </c>
-      <c r="G142" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F143" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G143" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F144" s="18">
-        <v>24292</v>
-      </c>
-      <c r="G144" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
+      <c r="B141" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F141" s="24">
+        <v>3467</v>
+      </c>
+      <c r="G141" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="26"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="32"/>
+      <c r="H146" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D145" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F145" s="18">
-        <v>45274</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1131848</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F146" s="18">
-        <v>45274</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1131848</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
+      <c r="C147" s="32"/>
+      <c r="H147" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D147" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F147" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G147" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F148" s="18">
-        <v>12874</v>
-      </c>
-      <c r="G148" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F149" s="18">
-        <v>46718</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1167958</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F150" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G150" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F151" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G151" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F152" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G152" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F153" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G153" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F154" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G154" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F155" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G155" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F156" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G156" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F157" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G157" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F158" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G158" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F159" s="18">
-        <v>39001</v>
-      </c>
-      <c r="G159" s="18">
-        <v>975028</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F160" s="18">
-        <v>37783</v>
-      </c>
-      <c r="G160" s="18">
-        <v>944577</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" s="18">
-        <v>37783</v>
-      </c>
-      <c r="G161" s="18">
-        <v>944577</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F162" s="18">
-        <v>1691</v>
-      </c>
-      <c r="G162" s="18">
-        <v>1268000</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F163" s="24">
-        <v>3467</v>
-      </c>
-      <c r="G163" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H163" s="25"/>
-      <c r="I163" s="25"/>
-      <c r="J163" s="26"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C168" s="32"/>
-      <c r="H168" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C169" s="32"/>
-      <c r="H169" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="H169:J169"/>
-    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="H146:J146"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
